--- a/Document/java-project-2013.xlsx
+++ b/Document/java-project-2013.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="510" yWindow="600" windowWidth="15975" windowHeight="7365"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Danh-Sach-Do-An" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="Giao Đồ Án 2" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="DA03-HTThanh" state="hidden" r:id="rId5"/>
+    <sheet name="Danh-Sach-Do-An" sheetId="1" r:id="rId1"/>
+    <sheet name="Giao Đồ Án 2" sheetId="2" r:id="rId2"/>
+    <sheet name="DA03-HTThanh" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="250">
   <si>
     <t>ĐỒ ÁN THỰC HÀNH - 2013</t>
   </si>
@@ -21,7 +24,7 @@
     <t>1. DANH SÁCH ĐỒ ÁN THỰC HÀNH MÔN JAVA - XEM SHEET BÊN ĐỂ XEM PHÂN CÔNG</t>
   </si>
   <si>
-    <t>ĐỒ ÁN 01 </t>
+    <t>ĐỒ ÁN 01</t>
   </si>
   <si>
     <t>BestBuy (Appliances)</t>
@@ -105,7 +108,7 @@
     <t>- So sánh sản phẩm (Tối đa 4)</t>
   </si>
   <si>
-    <t>Xem chi tiết sản phẩm </t>
+    <t>Xem chi tiết sản phẩm</t>
   </si>
   <si>
     <t>- Overview &amp; Specifications</t>
@@ -588,7 +591,7 @@
     <t>1012011</t>
   </si>
   <si>
-    <t>1012524 </t>
+    <t>1012524</t>
   </si>
   <si>
     <t>BỔ SUNG</t>
@@ -733,248 +736,184 @@
   </si>
   <si>
     <t>1012370</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>cart, wishlist</t>
+  </si>
+  <si>
+    <t>them 5sao - cac san pham phu kien, sp lien quan</t>
+  </si>
+  <si>
+    <t>them binh luan + 5sao</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>register</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="20.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,12 +943,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1017,12 +950,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,2737 +970,3080 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="49" borderId="0" applyFont="1" fontId="1" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="2">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="4" borderId="0" applyFont="1" fontId="3" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="4" borderId="0" applyFont="1" fontId="4" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="4" borderId="0" applyFont="1" fontId="5" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="6">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="4" borderId="0" applyFont="1" fontId="7" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="8">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="9">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="49" borderId="0" fontId="0" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="10">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="11">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="49" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="12" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="13">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="4" borderId="0" fontId="0" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="49" borderId="0" fontId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="14" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="4" borderId="0" applyFont="1" fontId="15" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="8" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="16">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="4" borderId="0" fontId="0" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="9" xfId="0" numFmtId="49" borderId="0" applyFont="1" fontId="17" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="10" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="18" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="19">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="11" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="20" applyFill="1">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="21">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="4" borderId="0" fontId="0" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="12" xfId="0" numFmtId="49" borderId="0" applyFont="1" fontId="22" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="4" borderId="0" applyFont="1" fontId="23" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" customWidth="1" max="2" width="61.86"/>
-    <col min="3" customWidth="1" max="3" width="26.71"/>
-    <col min="4" customWidth="1" max="4" width="42.86"/>
+    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="28" r="A1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c s="28" r="B1"/>
-      <c s="28" r="C1"/>
-      <c s="28" r="D1"/>
-    </row>
-    <row r="2">
-      <c t="s" s="11" r="A2">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c s="11" r="B2"/>
-      <c s="5" r="C2"/>
-      <c s="11" r="D2"/>
-    </row>
-    <row r="3">
-      <c t="s" r="A3">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="19" r="C3">
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c t="s" r="A4">
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="19" r="C4">
+      <c r="C4" s="23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c t="s" r="A5">
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="19" r="C5">
+      <c r="C5" s="23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6">
-      <c t="s" r="A6">
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="B6">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="19" r="C6">
+      <c r="C6" s="23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7">
-      <c t="s" r="A7">
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="B7">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="19" r="C7">
+      <c r="C7" s="23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8">
-      <c t="s" s="3" r="A8">
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
-      <c s="3" r="B8"/>
-      <c s="7" r="C8"/>
-      <c s="24" r="D8"/>
-    </row>
-    <row r="9">
-      <c t="s" r="A9">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="B9">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11">
-      <c t="s" s="12" r="A11">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
         <v>20</v>
       </c>
-      <c s="12" r="B11"/>
-      <c s="33" r="C11"/>
-      <c s="12" r="D11"/>
-    </row>
-    <row r="12">
-      <c t="s" s="15" r="A12">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
         <v>21</v>
       </c>
-      <c s="15" r="B12"/>
-      <c s="22" r="C12"/>
-    </row>
-    <row r="13">
-      <c t="s" s="15" r="A13">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="8" r="B13">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c t="s" s="22" r="C13">
+      <c r="C13" s="14" t="s">
         <v>24</v>
       </c>
-      <c t="s" s="8" r="D13">
+      <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14">
-      <c s="6" r="A14">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c t="s" r="B14">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c s="31" r="C14">
+      <c r="C14" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15">
-      <c s="6" r="A15">
+      <c r="D14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c t="s" r="B15">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c s="31" r="C15">
+      <c r="C15" s="18">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="16">
-      <c s="6" r="A16"/>
-      <c t="s" r="B16">
+      <c r="D15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c s="31" r="C16">
+      <c r="C16" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="17">
-      <c s="6" r="A17">
+      <c r="D16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c t="s" r="B17">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c s="31" r="C17">
+      <c r="C17" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18">
-      <c s="15" r="A18">
+      <c r="D17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>4</v>
       </c>
-      <c t="s" s="8" r="B18">
+      <c r="B18" s="32" t="s">
         <v>30</v>
       </c>
-      <c s="22" r="C18"/>
-      <c s="8" r="D18"/>
-    </row>
-    <row r="19">
-      <c s="6" r="A19"/>
-      <c t="s" r="B19">
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c s="31" r="C19">
+      <c r="C19" s="18">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20">
-      <c s="6" r="A20"/>
-      <c t="s" r="B20">
+      <c r="D19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c s="31" r="C20">
+      <c r="C20" s="18">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="21">
-      <c s="6" r="A21">
+      <c r="D20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c t="s" r="B21">
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c s="31" r="C21">
+      <c r="C21" s="18">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="22">
-      <c s="6" r="A22"/>
-      <c t="s" r="B22">
+      <c r="D21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c s="31" r="C22">
+      <c r="C22" s="18">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="23">
-      <c s="6" r="A23"/>
-      <c t="s" r="B23">
+      <c r="D22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c s="31" r="C23">
+      <c r="C23" s="18">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="24">
-      <c s="15" r="A24">
+      <c r="D23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>6</v>
       </c>
-      <c t="s" s="8" r="B24">
+      <c r="B24" s="32" t="s">
         <v>36</v>
       </c>
-      <c s="22" r="C24"/>
-      <c s="8" r="D24"/>
-    </row>
-    <row r="25">
-      <c t="s" r="B25">
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c s="31" r="C25">
+      <c r="C25" s="18">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="26">
-      <c s="6" r="A26"/>
-      <c t="s" r="B26">
+      <c r="D25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c s="31" r="C26">
+      <c r="C26" s="18">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="27">
-      <c s="6" r="A27"/>
-      <c t="s" r="B27">
+      <c r="D26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c s="31" r="C27">
+      <c r="C27" s="18">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="28">
-      <c s="15" r="A28">
+      <c r="D27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
         <v>7</v>
       </c>
-      <c t="s" s="8" r="B28">
+      <c r="B28" s="32" t="s">
         <v>40</v>
       </c>
-      <c s="22" r="C28"/>
-    </row>
-    <row r="29">
-      <c s="6" r="A29"/>
-      <c t="s" r="B29">
+      <c r="C28" s="31"/>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" t="s">
         <v>41</v>
       </c>
-      <c s="31" r="C29">
+      <c r="C29" s="18">
         <v>0.25</v>
       </c>
     </row>
-    <row r="30">
-      <c s="6" r="A30"/>
-      <c t="s" r="B30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" t="s">
         <v>42</v>
       </c>
-      <c s="31" r="C30">
+      <c r="C30" s="18">
         <v>0.25</v>
       </c>
     </row>
-    <row r="31">
-      <c s="15" r="A31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
         <v>8</v>
       </c>
-      <c t="s" s="8" r="B31">
+      <c r="B31" s="4" t="s">
         <v>43</v>
       </c>
-      <c s="22" r="C31">
+      <c r="C31" s="14">
         <v>1</v>
       </c>
-      <c t="s" s="8" r="D31">
+      <c r="D31" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32">
-      <c s="6" r="A32"/>
-      <c t="s" s="16" r="B32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="9" t="s">
         <v>45</v>
       </c>
-      <c s="10" r="C32">
-        <f>sum(C14:C31)</f>
+      <c r="C32" s="6">
+        <f>SUM(C14:C31)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="33">
-      <c t="s" s="15" r="A33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
         <v>46</v>
       </c>
-      <c s="15" r="B33"/>
-      <c s="22" r="C33"/>
-    </row>
-    <row r="34">
-      <c t="s" s="15" r="A34">
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="8" r="B34">
+      <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
-      <c t="s" s="22" r="C34">
+      <c r="C34" s="14" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="8" r="D34">
+      <c r="D34" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35">
-      <c s="6" r="A35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>1</v>
       </c>
-      <c t="s" r="B35">
+      <c r="B35" t="s">
         <v>48</v>
       </c>
-      <c s="31" r="C35">
+      <c r="C35" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="36">
-      <c s="6" r="A36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>2</v>
       </c>
-      <c t="s" r="B36">
+      <c r="B36" t="s">
         <v>49</v>
       </c>
-      <c s="31" r="C36">
+      <c r="C36" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="37">
-      <c s="6" r="A37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>3</v>
       </c>
-      <c t="s" r="B37">
+      <c r="B37" t="s">
         <v>50</v>
       </c>
-      <c s="31" r="C37">
+      <c r="C37" s="18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="38">
-      <c s="6" r="A38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>4</v>
       </c>
-      <c t="s" r="B38">
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c s="31" r="C38">
+      <c r="C38" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="39">
-      <c s="6" r="A39"/>
-      <c t="s" s="16" r="B39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="9" t="s">
         <v>45</v>
       </c>
-      <c s="10" r="C39">
-        <f>sum(C35:C38)</f>
+      <c r="C39" s="6">
+        <f>SUM(C35:C38)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="40">
-      <c s="6" r="A40"/>
-      <c s="31" r="C40"/>
-    </row>
-    <row r="41">
-      <c t="s" s="11" r="A41">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="C40" s="18"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
         <v>51</v>
       </c>
-      <c s="11" r="B41"/>
-      <c s="5" r="C41"/>
-      <c s="18" r="D41"/>
-    </row>
-    <row r="42">
-      <c t="s" s="15" r="A42">
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="33"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="8" r="B42">
+      <c r="B42" s="4" t="s">
         <v>23</v>
       </c>
-      <c t="s" s="22" r="C42">
+      <c r="C42" s="14" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="8" r="D42">
+      <c r="D42" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43">
-      <c s="6" r="A43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>1</v>
       </c>
-      <c t="s" r="B43">
+      <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c t="s" s="31" r="C43">
+      <c r="C43" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44">
-      <c s="6" r="A44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>2</v>
       </c>
-      <c t="s" r="B44">
+      <c r="B44" t="s">
         <v>54</v>
       </c>
-      <c t="s" s="31" r="C44">
+      <c r="C44" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45">
-      <c s="6" r="A45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>3</v>
       </c>
-      <c t="s" r="B45">
+      <c r="B45" t="s">
         <v>56</v>
       </c>
-      <c t="s" s="31" r="C45">
+      <c r="C45" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46">
-      <c s="6" r="A46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>4</v>
       </c>
-      <c t="s" r="B46">
+      <c r="B46" t="s">
         <v>57</v>
       </c>
-      <c t="s" s="31" r="C46">
+      <c r="C46" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47">
-      <c s="6" r="A47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>5</v>
       </c>
-      <c t="s" r="B47">
+      <c r="B47" t="s">
         <v>58</v>
       </c>
-      <c t="s" s="31" r="C47">
+      <c r="C47" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48">
-      <c s="6" r="A48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>6</v>
       </c>
-      <c t="s" r="B48">
+      <c r="B48" t="s">
         <v>59</v>
       </c>
-      <c t="s" s="31" r="C48">
+      <c r="C48" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49">
-      <c s="6" r="A49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>7</v>
       </c>
-      <c t="s" r="B49">
+      <c r="B49" t="s">
         <v>60</v>
       </c>
-      <c t="s" s="31" r="C49">
+      <c r="C49" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50">
-      <c s="6" r="A50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>8</v>
       </c>
-      <c t="s" r="B50">
+      <c r="B50" t="s">
         <v>62</v>
       </c>
-      <c t="s" s="31" r="C50">
+      <c r="C50" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51">
-      <c s="6" r="A51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>9</v>
       </c>
-      <c t="s" r="B51">
+      <c r="B51" t="s">
         <v>63</v>
       </c>
-      <c t="s" s="31" r="C51">
+      <c r="C51" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52">
-      <c s="6" r="A52"/>
-      <c s="31" r="C52"/>
-    </row>
-    <row r="53">
-      <c t="s" s="11" r="A53">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="C52" s="18"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
         <v>64</v>
       </c>
-      <c s="11" r="B53"/>
-      <c s="5" r="C53"/>
-      <c s="18" r="D53"/>
-    </row>
-    <row r="54">
-      <c t="s" s="15" r="A54">
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="33"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="8" r="B54">
+      <c r="B54" s="4" t="s">
         <v>23</v>
       </c>
-      <c t="s" s="22" r="C54">
+      <c r="C54" s="14" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="8" r="D54">
+      <c r="D54" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55">
-      <c s="6" r="A55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>1</v>
       </c>
-      <c t="s" r="B55">
+      <c r="B55" t="s">
         <v>65</v>
       </c>
-      <c t="s" s="31" r="C55">
+      <c r="C55" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56">
-      <c s="6" r="A56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>2</v>
       </c>
-      <c t="s" r="B56">
+      <c r="B56" t="s">
         <v>67</v>
       </c>
-      <c t="s" s="31" r="C56">
+      <c r="C56" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57">
-      <c s="6" r="A57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>3</v>
       </c>
-      <c t="s" r="B57">
+      <c r="B57" t="s">
         <v>68</v>
       </c>
-      <c t="s" s="31" r="C57">
+      <c r="C57" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58">
-      <c s="19" r="C58"/>
-    </row>
-    <row r="59">
-      <c t="s" s="11" r="A59">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="21" t="s">
         <v>70</v>
       </c>
-      <c s="11" r="B59"/>
-      <c s="5" r="C59"/>
-      <c s="11" r="D59"/>
-    </row>
-    <row r="60">
-      <c s="6" r="A60">
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>1</v>
       </c>
-      <c t="s" r="B60">
+      <c r="B60" t="s">
         <v>71</v>
       </c>
-      <c t="s" s="4" r="C60">
+      <c r="C60" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61">
-      <c s="6" r="A61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>2</v>
       </c>
-      <c t="s" r="B61">
+      <c r="B61" t="s">
         <v>73</v>
       </c>
-      <c t="s" s="4" r="C61">
+      <c r="C61" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62">
-      <c s="6" r="A62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>3</v>
       </c>
-      <c t="s" r="B62">
+      <c r="B62" t="s">
         <v>74</v>
       </c>
-      <c t="s" s="4" r="C62">
+      <c r="C62" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63">
-      <c s="6" r="A63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>4</v>
       </c>
-      <c t="s" r="B63">
+      <c r="B63" t="s">
         <v>75</v>
       </c>
-      <c t="s" s="25" r="C63">
+      <c r="C63" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64">
-      <c s="6" r="A64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>5</v>
       </c>
-      <c t="s" r="B64">
+      <c r="B64" t="s">
         <v>77</v>
       </c>
-      <c t="s" s="25" r="C64">
+      <c r="C64" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65">
-      <c s="6" r="A65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>6</v>
       </c>
-      <c t="s" r="B65">
+      <c r="B65" t="s">
         <v>78</v>
       </c>
-      <c t="s" s="4" r="C65">
+      <c r="C65" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66">
-      <c s="25" r="C66"/>
-    </row>
-    <row r="67">
-      <c t="s" s="11" r="A67">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C66" s="15"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
         <v>80</v>
       </c>
-      <c s="11" r="B67"/>
-      <c s="5" r="C67"/>
-      <c s="11" r="D67"/>
-    </row>
-    <row r="68">
-      <c s="6" r="A68">
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>1</v>
       </c>
-      <c t="s" r="B68">
+      <c r="B68" t="s">
         <v>81</v>
       </c>
-      <c t="s" s="4" r="C68">
+      <c r="C68" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69">
-      <c s="6" r="A69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>2</v>
       </c>
-      <c t="s" r="B69">
+      <c r="B69" t="s">
         <v>82</v>
       </c>
-      <c t="s" s="4" r="C69">
+      <c r="C69" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70">
-      <c s="6" r="A70"/>
-      <c s="31" r="C70"/>
-    </row>
-    <row r="71">
-      <c s="6" r="A71"/>
-      <c s="31" r="C71"/>
-    </row>
-    <row r="72">
-      <c s="6" r="A72"/>
-      <c s="31" r="C72"/>
-    </row>
-    <row r="73">
-      <c s="6" r="A73"/>
-      <c s="31" r="C73"/>
-    </row>
-    <row r="74">
-      <c s="6" r="A74"/>
-      <c s="31" r="C74"/>
-    </row>
-    <row r="75">
-      <c s="6" r="A75"/>
-      <c s="31" r="C75"/>
-    </row>
-    <row r="76">
-      <c s="6" r="A76"/>
-      <c s="31" r="C76"/>
-    </row>
-    <row r="77">
-      <c s="6" r="A77"/>
-      <c s="31" r="C77"/>
-    </row>
-    <row r="78">
-      <c s="6" r="A78"/>
-      <c s="31" r="C78"/>
-    </row>
-    <row r="79">
-      <c s="6" r="A79"/>
-      <c s="31" r="C79"/>
-    </row>
-    <row r="80">
-      <c s="6" r="A80"/>
-      <c s="31" r="C80"/>
-    </row>
-    <row r="81">
-      <c s="6" r="A81"/>
-      <c s="31" r="C81"/>
-    </row>
-    <row r="82">
-      <c s="6" r="A82"/>
-      <c s="31" r="C82"/>
-    </row>
-    <row r="83">
-      <c s="6" r="A83"/>
-      <c s="31" r="C83"/>
-    </row>
-    <row r="84">
-      <c s="6" r="A84"/>
-      <c s="31" r="C84"/>
-    </row>
-    <row r="85">
-      <c s="6" r="A85"/>
-      <c s="31" r="C85"/>
-    </row>
-    <row r="86">
-      <c s="6" r="A86"/>
-      <c s="31" r="C86"/>
-    </row>
-    <row r="87">
-      <c s="6" r="A87"/>
-      <c s="31" r="C87"/>
-    </row>
-    <row r="88">
-      <c s="6" r="A88"/>
-      <c s="31" r="C88"/>
-    </row>
-    <row r="89">
-      <c s="6" r="A89"/>
-      <c s="31" r="C89"/>
-    </row>
-    <row r="90">
-      <c s="6" r="A90"/>
-      <c s="31" r="C90"/>
-    </row>
-    <row r="91">
-      <c s="6" r="A91"/>
-      <c s="31" r="C91"/>
-    </row>
-    <row r="92">
-      <c s="6" r="A92"/>
-      <c s="31" r="C92"/>
-    </row>
-    <row r="93">
-      <c s="6" r="A93"/>
-      <c s="31" r="C93"/>
-    </row>
-    <row r="94">
-      <c s="6" r="A94"/>
-      <c s="31" r="C94"/>
-    </row>
-    <row r="95">
-      <c s="6" r="A95"/>
-      <c s="31" r="C95"/>
-    </row>
-    <row r="96">
-      <c s="6" r="A96"/>
-      <c s="31" r="C96"/>
-    </row>
-    <row r="97">
-      <c s="6" r="A97"/>
-      <c s="31" r="C97"/>
-    </row>
-    <row r="98">
-      <c s="6" r="A98"/>
-      <c s="31" r="C98"/>
-    </row>
-    <row r="99">
-      <c s="6" r="A99"/>
-      <c s="31" r="C99"/>
-    </row>
-    <row r="100">
-      <c s="6" r="A100"/>
-      <c s="31" r="C100"/>
-    </row>
-    <row r="101">
-      <c s="6" r="A101"/>
-      <c s="31" r="C101"/>
-    </row>
-    <row r="102">
-      <c s="6" r="A102"/>
-      <c s="31" r="C102"/>
-    </row>
-    <row r="103">
-      <c s="6" r="A103"/>
-      <c s="31" r="C103"/>
-    </row>
-    <row r="104">
-      <c s="6" r="A104"/>
-      <c s="31" r="C104"/>
-    </row>
-    <row r="105">
-      <c s="6" r="A105"/>
-      <c s="31" r="C105"/>
-    </row>
-    <row r="106">
-      <c s="6" r="A106"/>
-      <c s="31" r="C106"/>
-    </row>
-    <row r="107">
-      <c s="6" r="A107"/>
-      <c s="31" r="C107"/>
-    </row>
-    <row r="108">
-      <c s="6" r="A108"/>
-      <c s="31" r="C108"/>
-    </row>
-    <row r="109">
-      <c s="6" r="A109"/>
-      <c s="31" r="C109"/>
-    </row>
-    <row r="110">
-      <c s="6" r="A110"/>
-      <c s="31" r="C110"/>
-    </row>
-    <row r="111">
-      <c s="6" r="A111"/>
-      <c s="31" r="C111"/>
-    </row>
-    <row r="112">
-      <c s="6" r="A112"/>
-      <c s="31" r="C112"/>
-    </row>
-    <row r="113">
-      <c s="6" r="A113"/>
-      <c s="31" r="C113"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+      <c r="C70" s="18"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+      <c r="C71" s="18"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+      <c r="C72" s="18"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+      <c r="C73" s="18"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+      <c r="C74" s="18"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
+      <c r="C75" s="18"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="C76" s="18"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="3"/>
+      <c r="C77" s="18"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="3"/>
+      <c r="C78" s="18"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="3"/>
+      <c r="C79" s="18"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+      <c r="C80" s="18"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+      <c r="C81" s="18"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="3"/>
+      <c r="C82" s="18"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+      <c r="C83" s="18"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+      <c r="C84" s="18"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="C85" s="18"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+      <c r="C86" s="18"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+      <c r="C87" s="18"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+      <c r="C88" s="18"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
+      <c r="C89" s="18"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+      <c r="C90" s="18"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="3"/>
+      <c r="C91" s="18"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="3"/>
+      <c r="C92" s="18"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="3"/>
+      <c r="C93" s="18"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="3"/>
+      <c r="C94" s="18"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="3"/>
+      <c r="C95" s="18"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="3"/>
+      <c r="C96" s="18"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="3"/>
+      <c r="C97" s="18"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="3"/>
+      <c r="C98" s="18"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="3"/>
+      <c r="C99" s="18"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="3"/>
+      <c r="C100" s="18"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="3"/>
+      <c r="C101" s="18"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="3"/>
+      <c r="C102" s="18"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="3"/>
+      <c r="C103" s="18"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="3"/>
+      <c r="C104" s="18"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="3"/>
+      <c r="C105" s="18"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="3"/>
+      <c r="C106" s="18"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="3"/>
+      <c r="C107" s="18"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="3"/>
+      <c r="C108" s="18"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
+      <c r="C109" s="18"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="3"/>
+      <c r="C110" s="18"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="3"/>
+      <c r="C111" s="18"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="3"/>
+      <c r="C112" s="18"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="3"/>
+      <c r="C113" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A67:D67"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane topLeftCell="A2" ySplit="1.0" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A2" activeCell="A2" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="5.43"/>
-    <col min="2" customWidth="1" max="2" width="11.43"/>
-    <col min="3" customWidth="1" max="3" width="13.14"/>
-    <col min="4" customWidth="1" max="4" width="12.71"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="17" r="A1">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c r="B1" s="1" t="s">
         <v>83</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c r="C1" s="1" t="s">
         <v>84</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c r="E1" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2">
-      <c s="9" r="A2">
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c t="s" s="20" r="B2">
+      <c r="B2" s="12" t="s">
         <v>87</v>
       </c>
-      <c t="s" s="20" r="C2">
+      <c r="C2" s="12" t="s">
         <v>88</v>
       </c>
-      <c s="20" r="D2"/>
-      <c t="s" s="20" r="E2">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3">
-      <c s="9" r="A3">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c t="s" s="20" r="B3">
+      <c r="B3" s="12" t="s">
         <v>90</v>
       </c>
-      <c t="s" s="20" r="C3">
+      <c r="C3" s="12" t="s">
         <v>91</v>
       </c>
-      <c t="s" s="20" r="D3">
+      <c r="D3" s="12" t="s">
         <v>92</v>
       </c>
-      <c t="s" s="20" r="E3">
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c s="9" r="A4">
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c t="s" s="20" r="B4">
+      <c r="B4" s="12" t="s">
         <v>93</v>
       </c>
-      <c t="s" s="20" r="C4">
+      <c r="C4" s="12" t="s">
         <v>94</v>
       </c>
-      <c t="s" s="20" r="D4">
+      <c r="D4" s="12" t="s">
         <v>95</v>
       </c>
-      <c t="s" s="20" r="E4">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c s="9" r="A5">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c t="s" s="20" r="B5">
+      <c r="B5" s="12" t="s">
         <v>96</v>
       </c>
-      <c t="s" s="20" r="C5">
+      <c r="C5" s="12" t="s">
         <v>97</v>
       </c>
-      <c s="20" r="D5"/>
-      <c t="s" s="20" r="E5">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6">
-      <c s="9" r="A6">
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c t="s" s="20" r="B6">
+      <c r="B6" s="12" t="s">
         <v>98</v>
       </c>
-      <c t="s" s="20" r="C6">
+      <c r="C6" s="12" t="s">
         <v>99</v>
       </c>
-      <c s="20" r="D6"/>
-      <c t="s" s="20" r="E6">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7">
-      <c s="9" r="A7">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c t="s" s="20" r="B7">
+      <c r="B7" s="12" t="s">
         <v>100</v>
       </c>
-      <c t="s" s="20" r="C7">
+      <c r="C7" s="12" t="s">
         <v>101</v>
       </c>
-      <c s="20" r="D7"/>
-      <c t="s" s="20" r="E7">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8">
-      <c s="9" r="A8">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c t="s" s="20" r="B8">
+      <c r="B8" s="12" t="s">
         <v>102</v>
       </c>
-      <c t="s" s="20" r="C8">
+      <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
-      <c t="s" s="20" r="D8">
+      <c r="D8" s="12" t="s">
         <v>104</v>
       </c>
-      <c t="s" s="20" r="E8">
+      <c r="E8" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9">
-      <c s="9" r="A9">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c t="s" s="20" r="B9">
+      <c r="B9" s="12" t="s">
         <v>105</v>
       </c>
-      <c t="s" s="20" r="C9">
+      <c r="C9" s="12" t="s">
         <v>106</v>
       </c>
-      <c t="s" s="20" r="D9">
+      <c r="D9" s="12" t="s">
         <v>107</v>
       </c>
-      <c t="s" s="20" r="E9">
+      <c r="E9" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c s="9" r="A10">
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c t="s" s="20" r="B10">
+      <c r="B10" s="12" t="s">
         <v>108</v>
       </c>
-      <c t="s" s="20" r="C10">
+      <c r="C10" s="12" t="s">
         <v>109</v>
       </c>
-      <c s="20" r="D10"/>
-      <c t="s" s="20" r="E10">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11">
-      <c s="9" r="A11">
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c t="s" s="20" r="B11">
+      <c r="B11" s="12" t="s">
         <v>110</v>
       </c>
-      <c t="s" s="20" r="C11">
+      <c r="C11" s="12" t="s">
         <v>111</v>
       </c>
-      <c s="20" r="D11"/>
-      <c t="s" s="20" r="E11">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12">
-      <c s="9" r="A12">
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c t="s" s="20" r="B12">
+      <c r="B12" s="12" t="s">
         <v>112</v>
       </c>
-      <c t="s" s="20" r="C12">
+      <c r="C12" s="12" t="s">
         <v>113</v>
       </c>
-      <c t="s" s="20" r="D12">
+      <c r="D12" s="12" t="s">
         <v>114</v>
       </c>
-      <c t="s" s="20" r="E12">
+      <c r="E12" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13">
-      <c s="9" r="A13">
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c t="s" s="20" r="B13">
+      <c r="B13" s="12" t="s">
         <v>115</v>
       </c>
-      <c t="s" s="20" r="C13">
+      <c r="C13" s="12" t="s">
         <v>116</v>
       </c>
-      <c t="s" s="20" r="D13">
+      <c r="D13" s="12" t="s">
         <v>117</v>
       </c>
-      <c t="s" s="20" r="E13">
+      <c r="E13" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14">
-      <c s="9" r="A14">
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c t="s" s="20" r="B14">
+      <c r="B14" s="12" t="s">
         <v>118</v>
       </c>
-      <c t="s" s="20" r="C14">
+      <c r="C14" s="12" t="s">
         <v>119</v>
       </c>
-      <c t="s" s="20" r="D14">
+      <c r="D14" s="12" t="s">
         <v>120</v>
       </c>
-      <c t="s" s="20" r="E14">
+      <c r="E14" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15">
-      <c s="9" r="A15">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c t="s" s="20" r="B15">
+      <c r="B15" s="12" t="s">
         <v>121</v>
       </c>
-      <c t="s" s="20" r="C15">
+      <c r="C15" s="12" t="s">
         <v>122</v>
       </c>
-      <c s="20" r="D15"/>
-      <c t="s" s="20" r="E15">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16">
-      <c s="9" r="A16">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c t="s" s="20" r="B16">
+      <c r="B16" s="12" t="s">
         <v>123</v>
       </c>
-      <c t="s" s="20" r="C16">
+      <c r="C16" s="12" t="s">
         <v>124</v>
       </c>
-      <c s="20" r="D16"/>
-      <c t="s" s="20" r="E16">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17">
-      <c s="9" r="A17">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c t="s" s="20" r="B17">
+      <c r="B17" s="12" t="s">
         <v>125</v>
       </c>
-      <c t="s" s="20" r="C17">
+      <c r="C17" s="12" t="s">
         <v>126</v>
       </c>
-      <c t="s" s="20" r="D17">
+      <c r="D17" s="12" t="s">
         <v>127</v>
       </c>
-      <c t="s" s="20" r="E17">
+      <c r="E17" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18">
-      <c s="9" r="A18">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c t="s" s="20" r="B18">
+      <c r="B18" s="12" t="s">
         <v>128</v>
       </c>
-      <c t="s" s="20" r="C18">
+      <c r="C18" s="12" t="s">
         <v>129</v>
       </c>
-      <c s="20" r="D18"/>
-      <c t="s" s="20" r="E18">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19">
-      <c s="9" r="A19">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c t="s" s="20" r="B19">
+      <c r="B19" s="12" t="s">
         <v>130</v>
       </c>
-      <c t="s" s="20" r="C19">
+      <c r="C19" s="12" t="s">
         <v>131</v>
       </c>
-      <c s="20" r="D19"/>
-      <c t="s" s="20" r="E19">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20">
-      <c s="9" r="A20">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c t="s" s="20" r="B20">
+      <c r="B20" s="12" t="s">
         <v>132</v>
       </c>
-      <c t="s" s="20" r="C20">
+      <c r="C20" s="12" t="s">
         <v>133</v>
       </c>
-      <c t="s" s="20" r="D20">
+      <c r="D20" s="12" t="s">
         <v>134</v>
       </c>
-      <c t="s" s="20" r="E20">
+      <c r="E20" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21">
-      <c s="9" r="A21">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c t="s" s="20" r="B21">
+      <c r="B21" s="12" t="s">
         <v>135</v>
       </c>
-      <c t="s" s="20" r="C21">
+      <c r="C21" s="12" t="s">
         <v>136</v>
       </c>
-      <c s="20" r="D21"/>
-      <c t="s" s="20" r="E21">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22">
-      <c s="9" r="A22">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c t="s" s="20" r="B22">
+      <c r="B22" s="12" t="s">
         <v>137</v>
       </c>
-      <c t="s" s="20" r="C22">
+      <c r="C22" s="12" t="s">
         <v>138</v>
       </c>
-      <c t="s" s="20" r="D22">
+      <c r="D22" s="12" t="s">
         <v>139</v>
       </c>
-      <c t="s" s="20" r="E22">
+      <c r="E22" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23">
-      <c s="9" r="A23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c t="s" s="20" r="B23">
+      <c r="B23" s="12" t="s">
         <v>140</v>
       </c>
-      <c t="s" s="20" r="C23">
+      <c r="C23" s="12" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="20" r="D23">
+      <c r="D23" s="12" t="s">
         <v>142</v>
       </c>
-      <c t="s" s="20" r="E23">
+      <c r="E23" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24">
-      <c s="9" r="A24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c t="s" s="20" r="B24">
+      <c r="B24" s="12" t="s">
         <v>143</v>
       </c>
-      <c t="s" s="20" r="C24">
+      <c r="C24" s="12" t="s">
         <v>144</v>
       </c>
-      <c t="s" s="20" r="D24">
+      <c r="D24" s="12" t="s">
         <v>145</v>
       </c>
-      <c t="s" s="20" r="E24">
+      <c r="E24" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25">
-      <c s="9" r="A25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c t="s" s="20" r="B25">
+      <c r="B25" s="12" t="s">
         <v>146</v>
       </c>
-      <c t="s" s="20" r="C25">
+      <c r="C25" s="12" t="s">
         <v>147</v>
       </c>
-      <c s="20" r="D25"/>
-      <c t="s" s="20" r="E25">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26">
-      <c s="9" r="A26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c t="s" s="20" r="B26">
+      <c r="B26" s="12" t="s">
         <v>148</v>
       </c>
-      <c t="s" s="20" r="C26">
+      <c r="C26" s="12" t="s">
         <v>149</v>
       </c>
-      <c s="20" r="D26"/>
-      <c t="s" s="20" r="E26">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27">
-      <c s="9" r="A27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c t="s" s="20" r="B27">
+      <c r="B27" s="12" t="s">
         <v>150</v>
       </c>
-      <c t="s" s="20" r="C27">
+      <c r="C27" s="12" t="s">
         <v>151</v>
       </c>
-      <c t="s" s="20" r="D27">
+      <c r="D27" s="12" t="s">
         <v>152</v>
       </c>
-      <c t="s" s="20" r="E27">
+      <c r="E27" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28">
-      <c s="9" r="A28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c t="s" s="20" r="B28">
+      <c r="B28" s="12" t="s">
         <v>153</v>
       </c>
-      <c s="20" r="C28"/>
-      <c s="20" r="D28"/>
-      <c t="s" s="20" r="E28">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29">
-      <c s="9" r="A29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c t="s" s="20" r="B29">
+      <c r="B29" s="12" t="s">
         <v>154</v>
       </c>
-      <c t="s" s="20" r="C29">
+      <c r="C29" s="12" t="s">
         <v>155</v>
       </c>
-      <c t="s" s="20" r="D29">
+      <c r="D29" s="12" t="s">
         <v>156</v>
       </c>
-      <c t="s" s="20" r="E29">
+      <c r="E29" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30">
-      <c s="9" r="A30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c t="s" s="20" r="B30">
+      <c r="B30" s="12" t="s">
         <v>157</v>
       </c>
-      <c t="s" s="20" r="C30">
+      <c r="C30" s="12" t="s">
         <v>158</v>
       </c>
-      <c s="20" r="D30"/>
-      <c t="s" s="20" r="E30">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31">
-      <c s="9" r="A31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c t="s" s="20" r="B31">
+      <c r="B31" s="12" t="s">
         <v>159</v>
       </c>
-      <c t="s" s="20" r="C31">
+      <c r="C31" s="12" t="s">
         <v>160</v>
       </c>
-      <c t="s" s="20" r="D31">
+      <c r="D31" s="12" t="s">
         <v>161</v>
       </c>
-      <c t="s" s="20" r="E31">
+      <c r="E31" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32">
-      <c s="9" r="A32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c t="s" s="20" r="B32">
+      <c r="B32" s="12" t="s">
         <v>162</v>
       </c>
-      <c t="s" s="20" r="C32">
+      <c r="C32" s="12" t="s">
         <v>163</v>
       </c>
-      <c s="20" r="D32"/>
-      <c t="s" s="20" r="E32">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33">
-      <c s="9" r="A33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c t="s" s="20" r="B33">
+      <c r="B33" s="12" t="s">
         <v>164</v>
       </c>
-      <c t="s" s="20" r="C33">
+      <c r="C33" s="12" t="s">
         <v>165</v>
       </c>
-      <c t="s" s="20" r="D33">
+      <c r="D33" s="12" t="s">
         <v>166</v>
       </c>
-      <c t="s" s="20" r="E33">
+      <c r="E33" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34">
-      <c s="9" r="A34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c t="s" s="20" r="B34">
+      <c r="B34" s="12" t="s">
         <v>167</v>
       </c>
-      <c t="s" s="20" r="C34">
+      <c r="C34" s="12" t="s">
         <v>168</v>
       </c>
-      <c s="20" r="D34"/>
-      <c t="s" s="20" r="E34">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35">
-      <c s="9" r="A35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c t="s" s="20" r="B35">
+      <c r="B35" s="12" t="s">
         <v>169</v>
       </c>
-      <c t="s" s="20" r="C35">
+      <c r="C35" s="12" t="s">
         <v>170</v>
       </c>
-      <c s="20" r="D35"/>
-      <c t="s" s="20" r="E35">
+      <c r="D35" s="12"/>
+      <c r="E35" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36">
-      <c s="9" r="A36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c t="s" s="20" r="B36">
+      <c r="B36" s="12" t="s">
         <v>171</v>
       </c>
-      <c s="20" r="C36"/>
-      <c s="20" r="D36"/>
-      <c t="s" s="20" r="E36">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37">
-      <c s="9" r="A37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c t="s" s="20" r="B37">
+      <c r="B37" s="12" t="s">
         <v>172</v>
       </c>
-      <c t="s" s="20" r="C37">
+      <c r="C37" s="12" t="s">
         <v>173</v>
       </c>
-      <c t="s" s="20" r="D37">
+      <c r="D37" s="12" t="s">
         <v>174</v>
       </c>
-      <c t="s" s="20" r="E37">
+      <c r="E37" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38">
-      <c s="9" r="A38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c t="s" s="20" r="B38">
+      <c r="B38" s="12" t="s">
         <v>175</v>
       </c>
-      <c t="s" s="20" r="C38">
+      <c r="C38" s="12" t="s">
         <v>176</v>
       </c>
-      <c t="s" s="20" r="D38">
+      <c r="D38" s="12" t="s">
         <v>177</v>
       </c>
-      <c t="s" s="20" r="E38">
+      <c r="E38" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39">
-      <c s="9" r="A39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c t="s" s="20" r="B39">
+      <c r="B39" s="12" t="s">
         <v>178</v>
       </c>
-      <c s="20" r="C39"/>
-      <c s="20" r="D39"/>
-      <c t="s" s="20" r="E39">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40">
-      <c s="9" r="A40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c t="s" s="20" r="B40">
+      <c r="B40" s="12" t="s">
         <v>179</v>
       </c>
-      <c t="s" s="20" r="C40">
+      <c r="C40" s="12" t="s">
         <v>180</v>
       </c>
-      <c s="20" r="D40"/>
-      <c t="s" s="20" r="E40">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41">
-      <c s="9" r="A41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c t="s" s="20" r="B41">
+      <c r="B41" s="12" t="s">
         <v>181</v>
       </c>
-      <c t="s" s="20" r="C41">
+      <c r="C41" s="12" t="s">
         <v>182</v>
       </c>
-      <c t="s" s="20" r="D41">
+      <c r="D41" s="12" t="s">
         <v>183</v>
       </c>
-      <c t="s" s="20" r="E41">
+      <c r="E41" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42">
-      <c s="9" r="A42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c t="s" s="20" r="B42">
+      <c r="B42" s="12" t="s">
         <v>184</v>
       </c>
-      <c t="s" s="20" r="C42">
+      <c r="C42" s="12" t="s">
         <v>185</v>
       </c>
-      <c s="20" r="D42"/>
-      <c t="s" s="20" r="E42">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43">
-      <c s="9" r="A43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c t="s" s="20" r="B43">
+      <c r="B43" s="12" t="s">
         <v>186</v>
       </c>
-      <c s="20" r="C43"/>
-      <c s="20" r="D43"/>
-      <c t="s" s="20" r="E43">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44">
-      <c s="9" r="A44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c t="s" s="20" r="B44">
+      <c r="B44" s="12" t="s">
         <v>187</v>
       </c>
-      <c t="s" s="20" r="C44">
+      <c r="C44" s="12" t="s">
         <v>188</v>
       </c>
-      <c s="20" r="D44"/>
-      <c t="s" s="20" r="E44">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45">
-      <c s="9" r="A45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c t="s" s="20" r="B45">
+      <c r="B45" s="12" t="s">
         <v>189</v>
       </c>
-      <c t="s" s="20" r="C45">
+      <c r="C45" s="12" t="s">
         <v>190</v>
       </c>
-      <c t="s" s="32" r="D45">
+      <c r="D45" s="19" t="s">
         <v>191</v>
       </c>
-      <c t="s" s="20" r="E45">
+      <c r="E45" s="12" t="s">
         <v>11</v>
       </c>
-      <c t="s" s="16" r="F45">
+      <c r="F45" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="46">
-      <c s="9" r="A46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c t="s" s="20" r="B46">
+      <c r="B46" s="12" t="s">
         <v>193</v>
       </c>
-      <c s="20" r="C46"/>
-      <c s="20" r="D46"/>
-      <c t="s" s="20" r="E46">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47">
-      <c s="27" r="A47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c t="s" s="26" r="B47">
+      <c r="B47" s="16" t="s">
         <v>190</v>
       </c>
-      <c t="s" s="26" r="C47">
+      <c r="C47" s="16" t="s">
         <v>189</v>
       </c>
-      <c s="26" r="D47"/>
-      <c t="s" s="26" r="E47">
+      <c r="D47" s="16"/>
+      <c r="E47" s="16" t="s">
         <v>89</v>
       </c>
-      <c t="s" s="21" r="F47">
+      <c r="F47" s="13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="48">
-      <c s="9" r="A48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c t="s" s="20" r="B48">
+      <c r="B48" s="12" t="s">
         <v>195</v>
       </c>
-      <c s="20" r="C48"/>
-      <c s="20" r="D48"/>
-      <c t="s" s="20" r="E48">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49">
-      <c s="9" r="A49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c t="s" s="20" r="B49">
+      <c r="B49" s="12" t="s">
         <v>196</v>
       </c>
-      <c t="s" s="20" r="C49">
+      <c r="C49" s="12" t="s">
         <v>197</v>
       </c>
-      <c s="20" r="D49"/>
-      <c t="s" s="20" r="E49">
+      <c r="D49" s="12"/>
+      <c r="E49" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50">
-      <c s="9" r="A50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c t="s" s="20" r="B50">
+      <c r="B50" s="12" t="s">
         <v>198</v>
       </c>
-      <c t="s" s="20" r="C50">
+      <c r="C50" s="12" t="s">
         <v>199</v>
       </c>
-      <c s="20" r="D50"/>
-      <c t="s" s="20" r="E50">
+      <c r="D50" s="12"/>
+      <c r="E50" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51">
-      <c s="9" r="A51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c t="s" s="20" r="B51">
+      <c r="B51" s="12" t="s">
         <v>200</v>
       </c>
-      <c t="s" s="20" r="C51">
+      <c r="C51" s="12" t="s">
         <v>201</v>
       </c>
-      <c s="20" r="D51"/>
-      <c t="s" s="20" r="E51">
+      <c r="D51" s="12"/>
+      <c r="E51" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52">
-      <c s="9" r="A52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c t="s" s="20" r="B52">
+      <c r="B52" s="12" t="s">
         <v>202</v>
       </c>
-      <c t="s" s="20" r="C52">
+      <c r="C52" s="12" t="s">
         <v>203</v>
       </c>
-      <c s="20" r="D52"/>
-      <c t="s" s="20" r="E52">
+      <c r="D52" s="12"/>
+      <c r="E52" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53">
-      <c s="9" r="A53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c t="s" s="20" r="B53">
+      <c r="B53" s="12" t="s">
         <v>204</v>
       </c>
-      <c t="s" s="20" r="C53">
+      <c r="C53" s="12" t="s">
         <v>205</v>
       </c>
-      <c s="20" r="D53"/>
-      <c t="s" s="20" r="E53">
+      <c r="D53" s="12"/>
+      <c r="E53" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54">
-      <c s="9" r="A54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c t="s" s="20" r="B54">
+      <c r="B54" s="12" t="s">
         <v>206</v>
       </c>
-      <c t="s" s="20" r="C54">
+      <c r="C54" s="12" t="s">
         <v>207</v>
       </c>
-      <c t="s" s="20" r="D54">
+      <c r="D54" s="12" t="s">
         <v>208</v>
       </c>
-      <c t="s" s="20" r="E54">
+      <c r="E54" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55">
-      <c s="9" r="A55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c t="s" s="20" r="B55">
+      <c r="B55" s="12" t="s">
         <v>209</v>
       </c>
-      <c s="20" r="C55"/>
-      <c s="20" r="D55"/>
-      <c t="s" s="20" r="E55">
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56">
-      <c s="9" r="A56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c t="s" s="20" r="B56">
+      <c r="B56" s="12" t="s">
         <v>210</v>
       </c>
-      <c t="s" s="20" r="C56">
+      <c r="C56" s="12" t="s">
         <v>211</v>
       </c>
-      <c t="s" s="20" r="D56">
+      <c r="D56" s="12" t="s">
         <v>212</v>
       </c>
-      <c t="s" s="20" r="E56">
+      <c r="E56" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57">
-      <c s="9" r="A57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c t="s" s="20" r="B57">
+      <c r="B57" s="12" t="s">
         <v>213</v>
       </c>
-      <c t="s" s="20" r="C57">
+      <c r="C57" s="12" t="s">
         <v>214</v>
       </c>
-      <c t="s" s="20" r="D57">
+      <c r="D57" s="12" t="s">
         <v>215</v>
       </c>
-      <c t="s" s="20" r="E57">
+      <c r="E57" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58">
-      <c s="9" r="A58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c t="s" s="20" r="B58">
+      <c r="B58" s="12" t="s">
         <v>216</v>
       </c>
-      <c t="s" s="20" r="C58">
+      <c r="C58" s="12" t="s">
         <v>217</v>
       </c>
-      <c s="20" r="D58"/>
-      <c t="s" s="20" r="E58">
+      <c r="D58" s="12"/>
+      <c r="E58" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59">
-      <c s="9" r="A59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c t="s" s="20" r="B59">
+      <c r="B59" s="12" t="s">
         <v>218</v>
       </c>
-      <c t="s" s="20" r="C59">
+      <c r="C59" s="12" t="s">
         <v>219</v>
       </c>
-      <c s="20" r="D59"/>
-      <c t="s" s="20" r="E59">
+      <c r="D59" s="12"/>
+      <c r="E59" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60">
-      <c s="9" r="A60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c t="s" s="20" r="B60">
+      <c r="B60" s="12" t="s">
         <v>220</v>
       </c>
-      <c t="s" s="20" r="C60">
+      <c r="C60" s="12" t="s">
         <v>221</v>
       </c>
-      <c s="20" r="D60"/>
-      <c t="s" s="20" r="E60">
+      <c r="D60" s="12"/>
+      <c r="E60" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61">
-      <c s="9" r="A61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c t="s" s="20" r="B61">
+      <c r="B61" s="12" t="s">
         <v>222</v>
       </c>
-      <c t="s" s="20" r="C61">
+      <c r="C61" s="12" t="s">
         <v>223</v>
       </c>
-      <c s="20" r="D61"/>
-      <c t="s" s="20" r="E61">
+      <c r="D61" s="12"/>
+      <c r="E61" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62">
-      <c s="27" r="A62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="17">
         <v>61</v>
       </c>
-      <c t="s" s="26" r="B62">
+      <c r="B62" s="16" t="s">
         <v>116</v>
       </c>
-      <c t="s" s="26" r="C62">
+      <c r="C62" s="16" t="s">
         <v>117</v>
       </c>
-      <c s="26" r="D62"/>
-      <c t="s" s="26" r="E62">
+      <c r="D62" s="16"/>
+      <c r="E62" s="16" t="s">
         <v>89</v>
       </c>
-      <c t="s" s="21" r="F62">
+      <c r="F62" s="13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="63">
-      <c s="9" r="A63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c t="s" s="20" r="B63">
+      <c r="B63" s="12" t="s">
         <v>224</v>
       </c>
-      <c t="s" s="20" r="C63">
+      <c r="C63" s="12" t="s">
         <v>225</v>
       </c>
-      <c s="20" r="D63"/>
-      <c t="s" s="20" r="E63">
+      <c r="D63" s="12"/>
+      <c r="E63" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64">
-      <c s="9" r="A64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c t="s" s="20" r="B64">
+      <c r="B64" s="12" t="s">
         <v>226</v>
       </c>
-      <c t="s" s="20" r="C64">
+      <c r="C64" s="12" t="s">
         <v>227</v>
       </c>
-      <c s="20" r="D64"/>
-      <c t="s" s="20" r="E64">
+      <c r="D64" s="12"/>
+      <c r="E64" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65">
-      <c s="9" r="A65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c t="s" s="20" r="B65">
+      <c r="B65" s="12" t="s">
         <v>228</v>
       </c>
-      <c t="s" s="20" r="C65">
+      <c r="C65" s="12" t="s">
         <v>229</v>
       </c>
-      <c s="20" r="D65"/>
-      <c t="s" s="20" r="E65">
+      <c r="D65" s="12"/>
+      <c r="E65" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66">
-      <c s="9" r="A66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c t="s" s="20" r="B66">
+      <c r="B66" s="12" t="s">
         <v>230</v>
       </c>
-      <c t="s" s="20" r="C66">
+      <c r="C66" s="12" t="s">
         <v>231</v>
       </c>
-      <c s="20" r="D66"/>
-      <c t="s" s="20" r="E66">
+      <c r="D66" s="12"/>
+      <c r="E66" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67">
-      <c s="9" r="A67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c t="s" s="20" r="B67">
+      <c r="B67" s="12" t="s">
         <v>232</v>
       </c>
-      <c t="s" s="20" r="C67">
+      <c r="C67" s="12" t="s">
         <v>233</v>
       </c>
-      <c s="20" r="D67"/>
-      <c t="s" s="20" r="E67">
+      <c r="D67" s="12"/>
+      <c r="E67" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68">
-      <c s="9" r="A68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c t="s" s="20" r="B68">
+      <c r="B68" s="12" t="s">
         <v>234</v>
       </c>
-      <c t="s" s="20" r="C68">
+      <c r="C68" s="12" t="s">
         <v>235</v>
       </c>
-      <c s="20" r="D68"/>
-      <c t="s" s="20" r="E68">
+      <c r="D68" s="12"/>
+      <c r="E68" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69">
-      <c s="9" r="A69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c t="s" s="20" r="B69">
+      <c r="B69" s="12" t="s">
         <v>236</v>
       </c>
-      <c t="s" s="20" r="C69">
+      <c r="C69" s="12" t="s">
         <v>186</v>
       </c>
-      <c t="s" s="20" r="D69">
+      <c r="D69" s="12" t="s">
         <v>237</v>
       </c>
-      <c t="s" s="20" r="E69">
+      <c r="E69" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70">
-      <c s="9" r="A70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c t="s" s="20" r="B70">
+      <c r="B70" s="12" t="s">
         <v>220</v>
       </c>
-      <c t="s" s="20" r="C70">
+      <c r="C70" s="12" t="s">
         <v>221</v>
       </c>
-      <c s="20" r="D70"/>
-      <c t="s" s="20" r="E70">
+      <c r="D70" s="12"/>
+      <c r="E70" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="71">
-      <c s="9" r="A71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c t="s" s="20" r="B71">
+      <c r="B71" s="12" t="s">
         <v>238</v>
       </c>
-      <c t="s" s="20" r="C71">
+      <c r="C71" s="12" t="s">
         <v>239</v>
       </c>
-      <c s="20" r="D71"/>
-      <c t="s" s="20" r="E71">
+      <c r="D71" s="12"/>
+      <c r="E71" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72">
-      <c s="6" r="A72"/>
-      <c s="14" r="B72"/>
-      <c s="14" r="C72"/>
-      <c s="14" r="D72"/>
-    </row>
-    <row r="73">
-      <c s="6" r="A73"/>
-      <c s="14" r="B73"/>
-      <c s="14" r="C73"/>
-      <c s="14" r="D73"/>
-    </row>
-    <row r="74">
-      <c s="6" r="A74"/>
-      <c s="14" r="B74"/>
-      <c s="14" r="C74"/>
-      <c s="14" r="D74"/>
-    </row>
-    <row r="75">
-      <c s="6" r="A75"/>
-      <c s="14" r="B75"/>
-      <c s="14" r="C75"/>
-      <c s="14" r="D75"/>
-    </row>
-    <row r="76">
-      <c s="6" r="A76"/>
-      <c s="14" r="B76"/>
-      <c s="14" r="C76"/>
-      <c s="14" r="D76"/>
-    </row>
-    <row r="77">
-      <c s="6" r="A77"/>
-      <c s="14" r="B77"/>
-      <c s="14" r="C77"/>
-      <c s="14" r="D77"/>
-    </row>
-    <row r="78">
-      <c s="6" r="A78"/>
-      <c s="14" r="B78"/>
-      <c s="14" r="C78"/>
-      <c s="14" r="D78"/>
-    </row>
-    <row r="79">
-      <c s="6" r="A79"/>
-      <c s="14" r="B79"/>
-      <c s="14" r="C79"/>
-      <c s="14" r="D79"/>
-    </row>
-    <row r="80">
-      <c s="6" r="A80"/>
-      <c s="14" r="B80"/>
-      <c s="14" r="C80"/>
-      <c s="14" r="D80"/>
-    </row>
-    <row r="81">
-      <c s="6" r="A81"/>
-      <c s="14" r="B81"/>
-      <c s="14" r="C81"/>
-      <c s="14" r="D81"/>
-    </row>
-    <row r="82">
-      <c s="6" r="A82"/>
-      <c s="14" r="B82"/>
-      <c s="14" r="C82"/>
-      <c s="14" r="D82"/>
-    </row>
-    <row r="83">
-      <c s="6" r="A83"/>
-      <c s="14" r="B83"/>
-      <c s="14" r="C83"/>
-      <c s="14" r="D83"/>
-    </row>
-    <row r="84">
-      <c s="6" r="A84"/>
-      <c s="14" r="B84"/>
-      <c s="14" r="C84"/>
-      <c s="14" r="D84"/>
-    </row>
-    <row r="85">
-      <c s="6" r="A85"/>
-      <c s="14" r="B85"/>
-      <c s="14" r="C85"/>
-      <c s="14" r="D85"/>
-    </row>
-    <row r="86">
-      <c s="6" r="A86"/>
-      <c s="14" r="B86"/>
-      <c s="14" r="C86"/>
-      <c s="14" r="D86"/>
-    </row>
-    <row r="87">
-      <c s="6" r="A87"/>
-      <c s="14" r="B87"/>
-      <c s="14" r="C87"/>
-      <c s="14" r="D87"/>
-    </row>
-    <row r="88">
-      <c s="6" r="A88"/>
-      <c s="14" r="B88"/>
-      <c s="14" r="C88"/>
-      <c s="14" r="D88"/>
-    </row>
-    <row r="89">
-      <c s="6" r="A89"/>
-      <c s="14" r="B89"/>
-      <c s="14" r="C89"/>
-      <c s="14" r="D89"/>
-    </row>
-    <row r="90">
-      <c s="6" r="A90"/>
-      <c s="14" r="B90"/>
-      <c s="14" r="C90"/>
-      <c s="14" r="D90"/>
-    </row>
-    <row r="91">
-      <c s="6" r="A91"/>
-      <c s="14" r="B91"/>
-      <c s="14" r="C91"/>
-      <c s="14" r="D91"/>
-    </row>
-    <row r="92">
-      <c s="6" r="A92"/>
-      <c s="14" r="B92"/>
-      <c s="14" r="C92"/>
-      <c s="14" r="D92"/>
-    </row>
-    <row r="93">
-      <c s="6" r="A93"/>
-      <c s="14" r="B93"/>
-      <c s="14" r="C93"/>
-      <c s="14" r="D93"/>
-    </row>
-    <row r="94">
-      <c s="6" r="A94"/>
-      <c s="14" r="B94"/>
-      <c s="14" r="C94"/>
-      <c s="14" r="D94"/>
-    </row>
-    <row r="95">
-      <c s="6" r="A95"/>
-      <c s="14" r="B95"/>
-      <c s="14" r="C95"/>
-      <c s="14" r="D95"/>
-    </row>
-    <row r="96">
-      <c s="6" r="A96"/>
-      <c s="14" r="B96"/>
-      <c s="14" r="C96"/>
-      <c s="14" r="D96"/>
-    </row>
-    <row r="97">
-      <c s="6" r="A97"/>
-      <c s="14" r="B97"/>
-      <c s="14" r="C97"/>
-      <c s="14" r="D97"/>
-    </row>
-    <row r="98">
-      <c s="6" r="A98"/>
-      <c s="14" r="B98"/>
-      <c s="14" r="C98"/>
-      <c s="14" r="D98"/>
-    </row>
-    <row r="99">
-      <c s="6" r="A99"/>
-      <c s="14" r="B99"/>
-      <c s="14" r="C99"/>
-      <c s="14" r="D99"/>
-    </row>
-    <row r="100">
-      <c s="6" r="A100"/>
-      <c s="14" r="B100"/>
-      <c s="14" r="C100"/>
-      <c s="14" r="D100"/>
-    </row>
-    <row r="101">
-      <c s="6" r="A101"/>
-      <c s="14" r="B101"/>
-      <c s="14" r="C101"/>
-      <c s="14" r="D101"/>
-    </row>
-    <row r="102">
-      <c s="6" r="A102"/>
-      <c s="14" r="B102"/>
-      <c s="14" r="C102"/>
-      <c s="14" r="D102"/>
-    </row>
-    <row r="103">
-      <c s="6" r="A103"/>
-      <c s="14" r="B103"/>
-      <c s="14" r="C103"/>
-      <c s="14" r="D103"/>
-    </row>
-    <row r="104">
-      <c s="6" r="A104"/>
-      <c s="14" r="B104"/>
-      <c s="14" r="C104"/>
-      <c s="14" r="D104"/>
-    </row>
-    <row r="105">
-      <c s="6" r="A105"/>
-      <c s="14" r="B105"/>
-      <c s="14" r="C105"/>
-      <c s="14" r="D105"/>
-    </row>
-    <row r="106">
-      <c s="6" r="A106"/>
-      <c s="14" r="B106"/>
-      <c s="14" r="C106"/>
-      <c s="14" r="D106"/>
-    </row>
-    <row r="107">
-      <c s="6" r="A107"/>
-      <c s="14" r="B107"/>
-      <c s="14" r="C107"/>
-      <c s="14" r="D107"/>
-    </row>
-    <row r="108">
-      <c s="6" r="A108"/>
-      <c s="14" r="B108"/>
-      <c s="14" r="C108"/>
-      <c s="14" r="D108"/>
-    </row>
-    <row r="109">
-      <c s="6" r="A109"/>
-      <c s="14" r="B109"/>
-      <c s="14" r="C109"/>
-      <c s="14" r="D109"/>
-    </row>
-    <row r="110">
-      <c s="6" r="A110"/>
-      <c s="14" r="B110"/>
-      <c s="14" r="C110"/>
-      <c s="14" r="D110"/>
-    </row>
-    <row r="111">
-      <c s="6" r="A111"/>
-      <c s="14" r="B111"/>
-      <c s="14" r="C111"/>
-      <c s="14" r="D111"/>
-    </row>
-    <row r="112">
-      <c s="6" r="A112"/>
-      <c s="14" r="B112"/>
-      <c s="14" r="C112"/>
-      <c s="14" r="D112"/>
-    </row>
-    <row r="113">
-      <c s="6" r="A113"/>
-      <c s="14" r="B113"/>
-      <c s="14" r="C113"/>
-      <c s="14" r="D113"/>
-    </row>
-    <row r="114">
-      <c s="6" r="A114"/>
-      <c s="14" r="B114"/>
-      <c s="14" r="C114"/>
-      <c s="14" r="D114"/>
-    </row>
-    <row r="115">
-      <c s="6" r="A115"/>
-      <c s="14" r="B115"/>
-      <c s="14" r="C115"/>
-      <c s="14" r="D115"/>
-    </row>
-    <row r="116">
-      <c s="6" r="A116"/>
-      <c s="14" r="B116"/>
-      <c s="14" r="C116"/>
-      <c s="14" r="D116"/>
-    </row>
-    <row r="117">
-      <c s="6" r="A117"/>
-      <c s="14" r="B117"/>
-      <c s="14" r="C117"/>
-      <c s="14" r="D117"/>
-    </row>
-    <row r="118">
-      <c s="6" r="A118"/>
-      <c s="14" r="B118"/>
-      <c s="14" r="C118"/>
-      <c s="14" r="D118"/>
-    </row>
-    <row r="119">
-      <c s="6" r="A119"/>
-      <c s="14" r="B119"/>
-      <c s="14" r="C119"/>
-      <c s="14" r="D119"/>
-    </row>
-    <row r="120">
-      <c s="6" r="A120"/>
-      <c s="14" r="B120"/>
-      <c s="14" r="C120"/>
-      <c s="14" r="D120"/>
-    </row>
-    <row r="121">
-      <c s="6" r="A121"/>
-      <c s="14" r="B121"/>
-      <c s="14" r="C121"/>
-      <c s="14" r="D121"/>
-    </row>
-    <row r="122">
-      <c s="6" r="A122"/>
-      <c s="14" r="B122"/>
-      <c s="14" r="C122"/>
-      <c s="14" r="D122"/>
-    </row>
-    <row r="123">
-      <c s="6" r="A123"/>
-      <c s="14" r="B123"/>
-      <c s="14" r="C123"/>
-      <c s="14" r="D123"/>
-    </row>
-    <row r="124">
-      <c s="6" r="A124"/>
-      <c s="14" r="B124"/>
-      <c s="14" r="C124"/>
-      <c s="14" r="D124"/>
-    </row>
-    <row r="125">
-      <c s="6" r="A125"/>
-      <c s="14" r="B125"/>
-      <c s="14" r="C125"/>
-      <c s="14" r="D125"/>
-    </row>
-    <row r="126">
-      <c s="6" r="A126"/>
-      <c s="14" r="B126"/>
-      <c s="14" r="C126"/>
-      <c s="14" r="D126"/>
-    </row>
-    <row r="127">
-      <c s="6" r="A127"/>
-      <c s="14" r="B127"/>
-      <c s="14" r="C127"/>
-      <c s="14" r="D127"/>
-    </row>
-    <row r="128">
-      <c s="6" r="A128"/>
-      <c s="14" r="B128"/>
-      <c s="14" r="C128"/>
-      <c s="14" r="D128"/>
-    </row>
-    <row r="129">
-      <c s="6" r="A129"/>
-      <c s="14" r="B129"/>
-      <c s="14" r="C129"/>
-      <c s="14" r="D129"/>
-    </row>
-    <row r="130">
-      <c s="6" r="A130"/>
-      <c s="14" r="B130"/>
-      <c s="14" r="C130"/>
-      <c s="14" r="D130"/>
-    </row>
-    <row r="131">
-      <c s="6" r="A131"/>
-      <c s="14" r="B131"/>
-      <c s="14" r="C131"/>
-      <c s="14" r="D131"/>
-    </row>
-    <row r="132">
-      <c s="6" r="A132"/>
-      <c s="14" r="B132"/>
-      <c s="14" r="C132"/>
-      <c s="14" r="D132"/>
-    </row>
-    <row r="133">
-      <c s="6" r="A133"/>
-      <c s="14" r="B133"/>
-      <c s="14" r="C133"/>
-      <c s="14" r="D133"/>
-    </row>
-    <row r="134">
-      <c s="6" r="A134"/>
-      <c s="14" r="B134"/>
-      <c s="14" r="C134"/>
-      <c s="14" r="D134"/>
-    </row>
-    <row r="135">
-      <c s="6" r="A135"/>
-      <c s="14" r="B135"/>
-      <c s="14" r="C135"/>
-      <c s="14" r="D135"/>
-    </row>
-    <row r="136">
-      <c s="6" r="A136"/>
-      <c s="14" r="B136"/>
-      <c s="14" r="C136"/>
-      <c s="14" r="D136"/>
-    </row>
-    <row r="137">
-      <c s="6" r="A137"/>
-      <c s="14" r="B137"/>
-      <c s="14" r="C137"/>
-      <c s="14" r="D137"/>
-    </row>
-    <row r="138">
-      <c s="6" r="A138"/>
-      <c s="14" r="B138"/>
-      <c s="14" r="C138"/>
-      <c s="14" r="D138"/>
-    </row>
-    <row r="139">
-      <c s="6" r="A139"/>
-      <c s="14" r="B139"/>
-      <c s="14" r="C139"/>
-      <c s="14" r="D139"/>
-    </row>
-    <row r="140">
-      <c s="6" r="A140"/>
-      <c s="14" r="B140"/>
-      <c s="14" r="C140"/>
-      <c s="14" r="D140"/>
-    </row>
-    <row r="141">
-      <c s="6" r="A141"/>
-      <c s="14" r="B141"/>
-      <c s="14" r="C141"/>
-      <c s="14" r="D141"/>
-    </row>
-    <row r="142">
-      <c s="6" r="A142"/>
-      <c s="14" r="B142"/>
-      <c s="14" r="C142"/>
-      <c s="14" r="D142"/>
-    </row>
-    <row r="143">
-      <c s="6" r="A143"/>
-      <c s="14" r="B143"/>
-      <c s="14" r="C143"/>
-      <c s="14" r="D143"/>
-    </row>
-    <row r="144">
-      <c s="6" r="A144"/>
-      <c s="14" r="B144"/>
-      <c s="14" r="C144"/>
-      <c s="14" r="D144"/>
-    </row>
-    <row r="145">
-      <c s="6" r="A145"/>
-      <c s="14" r="B145"/>
-      <c s="14" r="C145"/>
-      <c s="14" r="D145"/>
-    </row>
-    <row r="146">
-      <c s="6" r="A146"/>
-      <c s="14" r="B146"/>
-      <c s="14" r="C146"/>
-      <c s="14" r="D146"/>
-    </row>
-    <row r="147">
-      <c s="6" r="A147"/>
-      <c s="14" r="B147"/>
-      <c s="14" r="C147"/>
-      <c s="14" r="D147"/>
-    </row>
-    <row r="148">
-      <c s="6" r="A148"/>
-      <c s="14" r="B148"/>
-      <c s="14" r="C148"/>
-      <c s="14" r="D148"/>
-    </row>
-    <row r="149">
-      <c s="6" r="A149"/>
-      <c s="14" r="B149"/>
-      <c s="14" r="C149"/>
-      <c s="14" r="D149"/>
-    </row>
-    <row r="150">
-      <c s="6" r="A150"/>
-      <c s="14" r="B150"/>
-      <c s="14" r="C150"/>
-      <c s="14" r="D150"/>
-    </row>
-    <row r="151">
-      <c s="6" r="A151"/>
-      <c s="14" r="B151"/>
-      <c s="14" r="C151"/>
-      <c s="14" r="D151"/>
-    </row>
-    <row r="152">
-      <c s="6" r="A152"/>
-      <c s="14" r="B152"/>
-      <c s="14" r="C152"/>
-      <c s="14" r="D152"/>
-    </row>
-    <row r="153">
-      <c s="6" r="A153"/>
-      <c s="14" r="B153"/>
-      <c s="14" r="C153"/>
-      <c s="14" r="D153"/>
-    </row>
-    <row r="154">
-      <c s="6" r="A154"/>
-      <c s="14" r="B154"/>
-      <c s="14" r="C154"/>
-      <c s="14" r="D154"/>
-    </row>
-    <row r="155">
-      <c s="6" r="A155"/>
-      <c s="14" r="B155"/>
-      <c s="14" r="C155"/>
-      <c s="14" r="D155"/>
-    </row>
-    <row r="156">
-      <c s="6" r="A156"/>
-      <c s="14" r="B156"/>
-      <c s="14" r="C156"/>
-      <c s="14" r="D156"/>
-    </row>
-    <row r="157">
-      <c s="6" r="A157"/>
-      <c s="14" r="B157"/>
-      <c s="14" r="C157"/>
-      <c s="14" r="D157"/>
-    </row>
-    <row r="158">
-      <c s="6" r="A158"/>
-      <c s="14" r="B158"/>
-      <c s="14" r="C158"/>
-      <c s="14" r="D158"/>
-    </row>
-    <row r="159">
-      <c s="6" r="A159"/>
-      <c s="14" r="B159"/>
-      <c s="14" r="C159"/>
-      <c s="14" r="D159"/>
-    </row>
-    <row r="160">
-      <c s="6" r="A160"/>
-      <c s="14" r="B160"/>
-      <c s="14" r="C160"/>
-      <c s="14" r="D160"/>
-    </row>
-    <row r="161">
-      <c s="6" r="A161"/>
-      <c s="14" r="B161"/>
-      <c s="14" r="C161"/>
-      <c s="14" r="D161"/>
-    </row>
-    <row r="162">
-      <c s="6" r="A162"/>
-      <c s="14" r="B162"/>
-      <c s="14" r="C162"/>
-      <c s="14" r="D162"/>
-    </row>
-    <row r="163">
-      <c s="6" r="A163"/>
-      <c s="14" r="B163"/>
-      <c s="14" r="C163"/>
-      <c s="14" r="D163"/>
-    </row>
-    <row r="164">
-      <c s="6" r="A164"/>
-      <c s="14" r="B164"/>
-      <c s="14" r="C164"/>
-      <c s="14" r="D164"/>
-    </row>
-    <row r="165">
-      <c s="6" r="A165"/>
-      <c s="14" r="B165"/>
-      <c s="14" r="C165"/>
-      <c s="14" r="D165"/>
-    </row>
-    <row r="166">
-      <c s="6" r="A166"/>
-      <c s="14" r="B166"/>
-      <c s="14" r="C166"/>
-      <c s="14" r="D166"/>
-    </row>
-    <row r="167">
-      <c s="6" r="A167"/>
-      <c s="14" r="B167"/>
-      <c s="14" r="C167"/>
-      <c s="14" r="D167"/>
-    </row>
-    <row r="168">
-      <c s="6" r="A168"/>
-      <c s="14" r="B168"/>
-      <c s="14" r="C168"/>
-      <c s="14" r="D168"/>
-    </row>
-    <row r="169">
-      <c s="6" r="A169"/>
-      <c s="14" r="B169"/>
-      <c s="14" r="C169"/>
-      <c s="14" r="D169"/>
-    </row>
-    <row r="170">
-      <c s="6" r="A170"/>
-      <c s="14" r="B170"/>
-      <c s="14" r="C170"/>
-      <c s="14" r="D170"/>
-    </row>
-    <row r="171">
-      <c s="6" r="A171"/>
-      <c s="14" r="B171"/>
-      <c s="14" r="C171"/>
-      <c s="14" r="D171"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="3"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="3"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="3"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="3"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="3"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="3"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="3"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="3"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="3"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="3"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="3"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="3"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="3"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="3"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="3"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="3"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="3"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="3"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="3"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="3"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="3"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="3"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="3"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="3"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="3"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="3"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="3"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="3"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="3"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="3"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="3"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="3"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="3"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="3"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="3"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="3"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="3"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="3"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="3"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="3"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="3"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="3"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="3"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="3"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="3"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="3"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="3"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="3"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="3"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="3"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="3"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="3"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="3"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="3"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="3"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="3"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="3"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="3"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="3"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="3"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="3"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="3"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="3"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="3"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="3"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="3"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="3"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="3"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="3"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="3"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="3"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="3"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="3"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="3"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="3"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="3"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>